--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/TENNESSEE_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/TENNESSEE_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1263"/>
+  <dimension ref="A1:D1257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C28">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C64">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C78">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C111">
@@ -1842,7 +1842,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C112">
@@ -2159,7 +2159,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C136">
@@ -2294,7 +2294,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2351,7 +2351,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C150">
@@ -2532,13 +2532,13 @@
         <v>10</v>
       </c>
       <c r="D163">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C164">
@@ -2597,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="D168">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="169">
@@ -2681,7 +2681,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C175">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C182">
@@ -2785,7 +2785,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C183">
@@ -2850,12 +2850,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C188">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C191">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C192">
@@ -2985,14 +2985,14 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C198">
         <v>10</v>
       </c>
       <c r="D198">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="199">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C204">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C210">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C216">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C225">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C232">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C234">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C243">
@@ -3674,7 +3674,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C251">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C256">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C257">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C258">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C259">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C268">
@@ -3913,7 +3913,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C269">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C277">
@@ -4069,7 +4069,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C281">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C291">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C293">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C295">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C296">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C298">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C302">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C308">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C311">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C312">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C316">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C318">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C319">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C323">
@@ -4633,7 +4633,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C324">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C325">
@@ -4711,7 +4711,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C330">
@@ -4724,7 +4724,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C331">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C335">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C340">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C342">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C343">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C346">
@@ -4978,7 +4978,7 @@
         <v>10</v>
       </c>
       <c r="D350">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="351">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C358">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C360">
@@ -5121,13 +5121,13 @@
         <v>10</v>
       </c>
       <c r="D361">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C362">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C364">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C368">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C382">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C383">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C389">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C392">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C394">
@@ -5587,14 +5587,14 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C397">
         <v>10</v>
       </c>
       <c r="D397">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="398">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C403">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C404">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C405">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C407">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C408">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C409">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C411">
@@ -5834,7 +5834,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C416">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C417">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C421">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C422">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C423">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C429">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C430">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C431">
@@ -6068,7 +6068,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C434">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C439">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C440">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C450">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C452">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C454">
@@ -6385,7 +6385,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C458">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C462">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C471">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C473">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C474">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C475">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C476">
@@ -6645,7 +6645,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C478">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C482">
@@ -6710,7 +6710,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C483">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C485">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C486">
@@ -6840,7 +6840,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C493">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C494">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C497">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C500">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C501">
@@ -7060,7 +7060,7 @@
         <v>10</v>
       </c>
       <c r="D509">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="510">
@@ -7196,7 +7196,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C520">
@@ -7872,7 +7872,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C572">
@@ -8124,7 +8124,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C591">
@@ -8215,7 +8215,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C598">
@@ -8254,7 +8254,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C601">
@@ -8293,7 +8293,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C604">
@@ -8306,7 +8306,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C605">
@@ -8441,7 +8441,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C615">
@@ -8493,7 +8493,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C619">
@@ -8571,7 +8571,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C625">
@@ -8784,7 +8784,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C641">
@@ -8823,7 +8823,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C644">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C649">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C656">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C659">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C660">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C661">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C663">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C665">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C670">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C676">
@@ -9270,7 +9270,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C678">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C686">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C689">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C714">
@@ -10050,7 +10050,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C738">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C750">
@@ -10291,7 +10291,7 @@
         <v>10</v>
       </c>
       <c r="D756">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="757">
@@ -10304,7 +10304,7 @@
         <v>99</v>
       </c>
       <c r="D757">
-        <v>0.009721131186174391</v>
+        <v>0.009721131186174393</v>
       </c>
     </row>
     <row r="758">
@@ -10590,7 +10590,7 @@
         <v>10</v>
       </c>
       <c r="D779">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="780">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C784">
@@ -10778,7 +10778,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C794">
@@ -11006,7 +11006,7 @@
         <v>10</v>
       </c>
       <c r="D811">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="812">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C820">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C831">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C832">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C833">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C835">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C837">
@@ -11350,7 +11350,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C838">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C839">
@@ -11376,7 +11376,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C840">
@@ -11402,7 +11402,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C842">
@@ -11428,7 +11428,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C844">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C853">
@@ -11771,7 +11771,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C870">
@@ -11797,7 +11797,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C872">
@@ -11836,7 +11836,7 @@
     <row r="875">
       <c r="B875" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C875">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C878">
@@ -12018,7 +12018,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C889">
@@ -12031,7 +12031,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C890">
@@ -12070,7 +12070,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C893">
@@ -12135,7 +12135,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C898">
@@ -12148,7 +12148,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C899">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C901">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C904">
@@ -12278,7 +12278,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C909">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C914">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C920">
@@ -12452,7 +12452,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C922">
@@ -12517,7 +12517,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C927">
@@ -12530,7 +12530,7 @@
     <row r="928">
       <c r="B928" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C928">
@@ -12569,14 +12569,14 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C931">
         <v>10</v>
       </c>
       <c r="D931">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="932">
@@ -12608,7 +12608,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C934">
@@ -12698,7 +12698,7 @@
         <v>10</v>
       </c>
       <c r="D940">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="941">
@@ -12742,13 +12742,13 @@
         <v>10</v>
       </c>
       <c r="D943">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C944">
@@ -12761,7 +12761,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C945">
@@ -12839,7 +12839,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C951">
@@ -12956,7 +12956,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C960">
@@ -13021,7 +13021,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C965">
@@ -13086,7 +13086,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C970">
@@ -13112,7 +13112,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C972">
@@ -13190,7 +13190,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C978">
@@ -13242,7 +13242,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C982">
@@ -13255,7 +13255,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C983">
@@ -13268,7 +13268,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C984">
@@ -13281,7 +13281,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C985">
@@ -13294,7 +13294,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C986">
@@ -13307,7 +13307,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C987">
@@ -13668,7 +13668,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1014">
@@ -13855,7 +13855,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1028">
@@ -14231,13 +14231,13 @@
         <v>10</v>
       </c>
       <c r="D1056">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="1057">
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1057">
@@ -14398,7 +14398,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1069">
@@ -14489,7 +14489,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1076">
@@ -14585,7 +14585,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1083">
@@ -14624,7 +14624,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1086">
@@ -14715,7 +14715,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1093">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1095">
@@ -14806,7 +14806,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1100">
@@ -15001,7 +15001,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1115">
@@ -15196,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1130">
@@ -15209,7 +15209,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1131">
@@ -15235,7 +15235,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1133">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1134">
@@ -15261,7 +15261,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1135">
@@ -15274,7 +15274,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1136">
@@ -15443,7 +15443,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1149">
@@ -15482,7 +15482,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1152">
@@ -15508,7 +15508,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1154">
@@ -15547,7 +15547,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1157">
@@ -15573,7 +15573,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1159">
@@ -15729,7 +15729,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1171">
@@ -15742,7 +15742,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1172">
@@ -15781,7 +15781,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1175">
@@ -15859,7 +15859,7 @@
     <row r="1181">
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1181">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1182">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1187">
@@ -16087,7 +16087,7 @@
         <v>10</v>
       </c>
       <c r="D1198">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="1199">
@@ -16139,7 +16139,7 @@
         <v>10</v>
       </c>
       <c r="D1202">
-        <v>0.0009819324430479183</v>
+        <v>0.0009819324430479185</v>
       </c>
     </row>
     <row r="1203">
@@ -16249,7 +16249,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1211">
@@ -16636,7 +16636,7 @@
     <row r="1240">
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1240">
@@ -16649,7 +16649,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1241">
@@ -16753,7 +16753,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1249">
@@ -16779,7 +16779,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1251">
@@ -16865,41 +16865,6 @@
       </c>
       <c r="D1257">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
